--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>
@@ -12748,7 +12748,7 @@
         <v>192</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12781,7 +12781,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12847,7 +12847,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12858,7 +12858,7 @@
         <v>201</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -12869,7 +12869,7 @@
         <v>202</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12891,7 +12891,7 @@
         <v>204</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>
@@ -12748,7 +12748,7 @@
         <v>192</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12781,7 +12781,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12803,7 +12803,7 @@
         <v>196</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12847,7 +12847,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12858,7 +12858,7 @@
         <v>201</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -12869,7 +12869,7 @@
         <v>202</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12891,7 +12891,7 @@
         <v>204</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>
@@ -12803,7 +12803,7 @@
         <v>196</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>
@@ -12770,7 +12770,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12924,7 +12924,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>
@@ -12770,7 +12770,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12924,7 +12924,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="281">
   <si>
     <t>Module</t>
   </si>

--- a/TEST_REPORT.xlsx
+++ b/TEST_REPORT.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRIRAM R\eclipse-workspace\MakeMyTrip-Hackethon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuvan\eclipse-workspace\MakeMyTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B94EE3-741B-4D98-912E-D43300F07EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62109790-0313-4403-8376-B2B7214E90A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{C070FBAE-AF5A-4258-B131-919A356D3612}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="760" xr2:uid="{C070FBAE-AF5A-4258-B131-919A356D3612}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST SCENARIO" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="280">
   <si>
     <t>Module</t>
   </si>
@@ -1211,9 +1211,6 @@
   </si>
   <si>
     <t>Requirement id</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Test Case id</t>
@@ -1305,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1396,12 +1393,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1543,32 +1566,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1580,27 +1585,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1613,22 +1612,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,7 +1659,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,98 +1670,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1201">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
+  <dxfs count="844">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -2430,6 +2365,97 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -3123,6 +3149,97 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -3816,1390 +3933,186 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
-        <top style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
           <color indexed="64"/>
-        </bottom>
+        </vertical>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
           <color indexed="64"/>
-        </bottom>
+        </vertical>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
           <color indexed="64"/>
-        </bottom>
+        </vertical>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
           <color indexed="64"/>
-        </bottom>
+        </vertical>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        </vertical>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5908,7 +4821,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SRIRAM R" refreshedDate="43991.662351388892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="61" xr:uid="{D42544A1-08C3-4787-9300-AA60303E540B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yuvan" refreshedDate="44007.493874884261" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="61" xr:uid="{D42544A1-08C3-4787-9300-AA60303E540B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J62" sheet="TEST CASES"/>
   </cacheSource>
@@ -6062,8 +4975,8 @@
     <cacheField name="STATUS" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
         <s v="Pass"/>
-        <s v="Fail"/>
         <m/>
+        <s v="Fail" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DEFECT ID" numFmtId="0">
@@ -6249,7 +5162,7 @@
     <x v="10"/>
     <s v="User must be able to navigate to the respective page after clicking on the search button"/>
     <s v="User is able to navigate to the respective page after clicking on the search button"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Regression"/>
     <m/>
@@ -6261,7 +5174,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6273,7 +5186,7 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6285,7 +5198,7 @@
     <x v="13"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6297,7 +5210,7 @@
     <x v="14"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6309,7 +5222,7 @@
     <x v="15"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6321,7 +5234,7 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6369,7 +5282,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6381,7 +5294,7 @@
     <x v="19"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6393,7 +5306,7 @@
     <x v="20"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6405,7 +5318,7 @@
     <x v="21"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6417,7 +5330,7 @@
     <x v="22"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6429,7 +5342,7 @@
     <x v="23"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6441,7 +5354,7 @@
     <x v="24"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6453,7 +5366,7 @@
     <x v="25"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6477,7 +5390,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6489,7 +5402,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6501,7 +5414,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6537,7 +5450,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6585,7 +5498,7 @@
     <x v="11"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6597,7 +5510,7 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6609,7 +5522,7 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6633,7 +5546,7 @@
     <x v="12"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6645,7 +5558,7 @@
     <x v="31"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6657,7 +5570,7 @@
     <x v="32"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6729,7 +5642,7 @@
     <x v="37"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6741,7 +5654,7 @@
     <x v="38"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6753,7 +5666,7 @@
     <x v="39"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6765,7 +5678,7 @@
     <x v="40"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6777,7 +5690,7 @@
     <x v="41"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6789,7 +5702,7 @@
     <x v="42"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6801,7 +5714,7 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6813,7 +5726,7 @@
     <x v="44"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -6822,8 +5735,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{574482A2-A8A7-4BB4-AA81-DD9484B79F2C}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Test Case id">
-  <location ref="B3:E4" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{574482A2-A8A7-4BB4-AA81-DD9484B79F2C}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Test Case id">
+  <location ref="B3:E3" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
       <items count="30">
@@ -6967,9 +5880,9 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
       <items count="3">
-        <item x="1"/>
+        <item m="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item h="1" x="1"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -6982,34 +5895,26 @@
     <field x="3"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="13"/>
-      <x v="33"/>
-      <x v="49"/>
-      <x/>
-    </i>
-  </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <formats count="211">
-    <format dxfId="1200">
+    <format dxfId="843">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1199">
+    <format dxfId="842">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1198">
+    <format dxfId="841">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1197">
+    <format dxfId="840">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1196">
+    <format dxfId="839">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1195">
+    <format dxfId="838">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="29">
@@ -7046,7 +5951,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1194">
+    <format dxfId="837">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7058,7 +5963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1193">
+    <format dxfId="836">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7070,7 +5975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1192">
+    <format dxfId="835">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7082,7 +5987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1191">
+    <format dxfId="834">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7094,7 +5999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1190">
+    <format dxfId="833">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7106,7 +6011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1189">
+    <format dxfId="832">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7118,7 +6023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1188">
+    <format dxfId="831">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7130,7 +6035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1187">
+    <format dxfId="830">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7142,7 +6047,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1186">
+    <format dxfId="829">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7154,7 +6059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1185">
+    <format dxfId="828">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7166,7 +6071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1184">
+    <format dxfId="827">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7178,7 +6083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1183">
+    <format dxfId="826">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7190,7 +6095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1182">
+    <format dxfId="825">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7202,7 +6107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1181">
+    <format dxfId="824">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7214,7 +6119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1180">
+    <format dxfId="823">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7226,7 +6131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1179">
+    <format dxfId="822">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7238,7 +6143,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1178">
+    <format dxfId="821">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7250,7 +6155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1177">
+    <format dxfId="820">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7262,7 +6167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1176">
+    <format dxfId="819">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7274,7 +6179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1175">
+    <format dxfId="818">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7286,7 +6191,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1174">
+    <format dxfId="817">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7298,7 +6203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1173">
+    <format dxfId="816">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7310,7 +6215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1172">
+    <format dxfId="815">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7322,7 +6227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1171">
+    <format dxfId="814">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7334,7 +6239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1170">
+    <format dxfId="813">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7346,7 +6251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1169">
+    <format dxfId="812">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7358,7 +6263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1168">
+    <format dxfId="811">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7370,7 +6275,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1167">
+    <format dxfId="810">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7382,7 +6287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1166">
+    <format dxfId="809">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7394,7 +6299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1165">
+    <format dxfId="808">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7409,7 +6314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1164">
+    <format dxfId="807">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7424,7 +6329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1163">
+    <format dxfId="806">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7439,7 +6344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1162">
+    <format dxfId="805">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7454,7 +6359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1161">
+    <format dxfId="804">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7469,7 +6374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1160">
+    <format dxfId="803">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7484,7 +6389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1159">
+    <format dxfId="802">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7499,7 +6404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1158">
+    <format dxfId="801">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7514,7 +6419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1157">
+    <format dxfId="800">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7529,7 +6434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1156">
+    <format dxfId="799">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7544,7 +6449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1155">
+    <format dxfId="798">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7559,7 +6464,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1154">
+    <format dxfId="797">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7574,7 +6479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1153">
+    <format dxfId="796">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7589,7 +6494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1152">
+    <format dxfId="795">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7604,7 +6509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1151">
+    <format dxfId="794">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7619,7 +6524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1150">
+    <format dxfId="793">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7634,7 +6539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1149">
+    <format dxfId="792">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7649,7 +6554,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1148">
+    <format dxfId="791">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7664,7 +6569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1147">
+    <format dxfId="790">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7679,7 +6584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1146">
+    <format dxfId="789">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7694,7 +6599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1145">
+    <format dxfId="788">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7709,7 +6614,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1144">
+    <format dxfId="787">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7724,7 +6629,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1143">
+    <format dxfId="786">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7739,7 +6644,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1142">
+    <format dxfId="785">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7754,7 +6659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1141">
+    <format dxfId="784">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7769,7 +6674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1140">
+    <format dxfId="783">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7784,7 +6689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1139">
+    <format dxfId="782">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7802,7 +6707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1138">
+    <format dxfId="781">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7820,7 +6725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1137">
+    <format dxfId="780">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7838,7 +6743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1136">
+    <format dxfId="779">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7856,7 +6761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1135">
+    <format dxfId="778">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7874,7 +6779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1134">
+    <format dxfId="777">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7892,7 +6797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1133">
+    <format dxfId="776">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7910,7 +6815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1132">
+    <format dxfId="775">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7928,7 +6833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1131">
+    <format dxfId="774">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7946,7 +6851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1130">
+    <format dxfId="773">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7964,7 +6869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1129">
+    <format dxfId="772">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -7982,7 +6887,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1128">
+    <format dxfId="771">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8000,7 +6905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1127">
+    <format dxfId="770">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8018,7 +6923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1126">
+    <format dxfId="769">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8036,7 +6941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1125">
+    <format dxfId="768">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8054,7 +6959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1124">
+    <format dxfId="767">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8072,7 +6977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1123">
+    <format dxfId="766">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8090,7 +6995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1122">
+    <format dxfId="765">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8108,7 +7013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1121">
+    <format dxfId="764">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8126,7 +7031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1120">
+    <format dxfId="763">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8144,7 +7049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1119">
+    <format dxfId="762">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8162,7 +7067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1118">
+    <format dxfId="761">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8180,7 +7085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1117">
+    <format dxfId="760">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8198,7 +7103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1116">
+    <format dxfId="759">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8216,7 +7121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1115">
+    <format dxfId="758">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8234,7 +7139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1114">
+    <format dxfId="757">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8252,7 +7157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1113">
+    <format dxfId="756">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8270,7 +7175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1112">
+    <format dxfId="755">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8288,7 +7193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1111">
+    <format dxfId="754">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -8306,22 +7211,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1110">
+    <format dxfId="753">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1109">
+    <format dxfId="752">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1108">
+    <format dxfId="751">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1107">
+    <format dxfId="750">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1106">
+    <format dxfId="749">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1105">
+    <format dxfId="748">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="29">
@@ -8358,7 +7263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1104">
+    <format dxfId="747">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8370,7 +7275,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1103">
+    <format dxfId="746">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8382,7 +7287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1102">
+    <format dxfId="745">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8394,7 +7299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1101">
+    <format dxfId="744">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8406,7 +7311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1100">
+    <format dxfId="743">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8418,7 +7323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1099">
+    <format dxfId="742">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8430,7 +7335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1098">
+    <format dxfId="741">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8442,7 +7347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1097">
+    <format dxfId="740">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8454,7 +7359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1096">
+    <format dxfId="739">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8466,7 +7371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1095">
+    <format dxfId="738">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8478,7 +7383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1094">
+    <format dxfId="737">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8490,7 +7395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1093">
+    <format dxfId="736">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8502,7 +7407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1092">
+    <format dxfId="735">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8514,7 +7419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1091">
+    <format dxfId="734">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8526,7 +7431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1090">
+    <format dxfId="733">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8538,7 +7443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1089">
+    <format dxfId="732">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8550,7 +7455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1088">
+    <format dxfId="731">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8562,7 +7467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1087">
+    <format dxfId="730">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8574,7 +7479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1086">
+    <format dxfId="729">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8586,7 +7491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1085">
+    <format dxfId="728">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8598,7 +7503,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1084">
+    <format dxfId="727">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8610,7 +7515,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1083">
+    <format dxfId="726">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8622,7 +7527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1082">
+    <format dxfId="725">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8634,7 +7539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1081">
+    <format dxfId="724">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8646,7 +7551,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1080">
+    <format dxfId="723">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8658,7 +7563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1079">
+    <format dxfId="722">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8670,7 +7575,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1078">
+    <format dxfId="721">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8682,7 +7587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1077">
+    <format dxfId="720">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8694,7 +7599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1076">
+    <format dxfId="719">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -8706,7 +7611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1075">
+    <format dxfId="718">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8721,7 +7626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1074">
+    <format dxfId="717">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8736,7 +7641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1073">
+    <format dxfId="716">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8751,7 +7656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1072">
+    <format dxfId="715">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8766,7 +7671,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1071">
+    <format dxfId="714">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8781,7 +7686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1070">
+    <format dxfId="713">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8796,7 +7701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1069">
+    <format dxfId="712">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8811,7 +7716,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1068">
+    <format dxfId="711">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8826,7 +7731,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1067">
+    <format dxfId="710">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8841,7 +7746,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1066">
+    <format dxfId="709">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8856,7 +7761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="708">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8871,7 +7776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="707">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8886,7 +7791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="706">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8901,7 +7806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="705">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8916,7 +7821,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1061">
+    <format dxfId="704">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8931,7 +7836,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1060">
+    <format dxfId="703">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8946,7 +7851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1059">
+    <format dxfId="702">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8961,7 +7866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1058">
+    <format dxfId="701">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8976,7 +7881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1057">
+    <format dxfId="700">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -8991,7 +7896,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1056">
+    <format dxfId="699">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9006,7 +7911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1055">
+    <format dxfId="698">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9021,7 +7926,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1054">
+    <format dxfId="697">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9036,7 +7941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1053">
+    <format dxfId="696">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9051,7 +7956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1052">
+    <format dxfId="695">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9066,7 +7971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1051">
+    <format dxfId="694">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9081,7 +7986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1050">
+    <format dxfId="693">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9096,7 +8001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1049">
+    <format dxfId="692">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9114,7 +8019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1048">
+    <format dxfId="691">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9132,7 +8037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1047">
+    <format dxfId="690">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9150,7 +8055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1046">
+    <format dxfId="689">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9168,7 +8073,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1045">
+    <format dxfId="688">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9186,7 +8091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1044">
+    <format dxfId="687">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9204,7 +8109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1043">
+    <format dxfId="686">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9222,7 +8127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1042">
+    <format dxfId="685">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9240,7 +8145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1041">
+    <format dxfId="684">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9258,7 +8163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1040">
+    <format dxfId="683">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9276,7 +8181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1039">
+    <format dxfId="682">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9294,7 +8199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1038">
+    <format dxfId="681">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9312,7 +8217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1037">
+    <format dxfId="680">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9330,7 +8235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1036">
+    <format dxfId="679">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9348,7 +8253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1035">
+    <format dxfId="678">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9366,7 +8271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1034">
+    <format dxfId="677">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9384,7 +8289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1033">
+    <format dxfId="676">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9402,7 +8307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1032">
+    <format dxfId="675">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9420,7 +8325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1031">
+    <format dxfId="674">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9438,7 +8343,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1030">
+    <format dxfId="673">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9456,7 +8361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1029">
+    <format dxfId="672">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9474,7 +8379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1028">
+    <format dxfId="671">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9492,7 +8397,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1027">
+    <format dxfId="670">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9510,7 +8415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1026">
+    <format dxfId="669">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9528,7 +8433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1025">
+    <format dxfId="668">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9546,7 +8451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1024">
+    <format dxfId="667">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9564,7 +8469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1023">
+    <format dxfId="666">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9582,7 +8487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1022">
+    <format dxfId="665">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9600,7 +8505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1021">
+    <format dxfId="664">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9618,34 +8523,34 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1020">
+    <format dxfId="663">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1019">
+    <format dxfId="662">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1018">
+    <format dxfId="661">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1017">
+    <format dxfId="660">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1016">
+    <format dxfId="659">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1015">
+    <format dxfId="658">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1014">
+    <format dxfId="657">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1013">
+    <format dxfId="656">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1012">
+    <format dxfId="655">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1011">
+    <format dxfId="654">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9654,7 +8559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1010">
+    <format dxfId="653">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9666,7 +8571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1009">
+    <format dxfId="652">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9681,7 +8586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1008">
+    <format dxfId="651">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9697,37 +8602,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1007">
+    <format dxfId="650">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1006">
+    <format dxfId="649">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1005">
+    <format dxfId="648">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1004">
+    <format dxfId="647">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1003">
+    <format dxfId="646">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="645">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="644">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="643">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="642">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="641">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="640">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9736,7 +8641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="639">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9748,7 +8653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="638">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9763,7 +8668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="637">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -9779,7 +8684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="636">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9788,7 +8693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="635">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -9800,7 +8705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="634">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -9815,7 +8720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="633">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -10143,17 +9048,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F783B0BF-7B6E-414B-9CEB-32AE6E7D3A42}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="59.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10482,12 +9387,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -10504,11 +9408,12 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B17"/>
     <mergeCell ref="B18:B24"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C28:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10518,22 +9423,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05742AC-B87F-4C63-A6EC-5905DDD944ED}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="13" width="35.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="12" width="35.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.42578125" style="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35" style="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10947,115 +9852,115 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="51" t="str">
+      <c r="G15" s="77" t="str">
         <f>+AUTOMATION_TESTING!C11</f>
-        <v>Fail</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
+        <v>Pass</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="58"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="58"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="58"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="58"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="58"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="59"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -11116,161 +10021,161 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="54" t="str">
+      <c r="G24" s="60" t="str">
         <f>+AUTOMATION_TESTING!C14</f>
         <v>Pass</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54" t="s">
+      <c r="H24" s="60"/>
+      <c r="I24" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="58"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="58"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="58"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="58"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="58"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="58"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="59"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="68"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="71" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="50" t="str">
@@ -11281,43 +10186,43 @@
       <c r="I33" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="67"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
-      <c r="J34" s="58"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="67"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="50"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
-      <c r="J35" s="58"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="68"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="50"/>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
-      <c r="J36" s="59"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
@@ -11349,45 +10254,45 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="54" t="s">
         <v>120</v>
       </c>
       <c r="G38" s="69" t="str">
         <f>+AUTOMATION_TESTING!C17</f>
         <v>Pass</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54" t="s">
+      <c r="H38" s="60"/>
+      <c r="I38" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="57"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="70"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="59"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -11448,144 +10353,144 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="54" t="str">
+      <c r="G42" s="60" t="str">
         <f>+AUTOMATION_TESTING!C20</f>
         <v>Pass</v>
       </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54" t="s">
+      <c r="H42" s="60"/>
+      <c r="I42" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="57"/>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="58"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="58"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="59"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="68"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="54" t="s">
         <v>137</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="G46" s="54" t="str">
+      <c r="G46" s="60" t="str">
         <f>+AUTOMATION_TESTING!C21</f>
         <v>Pass</v>
       </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54" t="s">
+      <c r="H46" s="60"/>
+      <c r="I46" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="66"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="58"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="58"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="67"/>
     </row>
     <row r="49" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="59"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -11704,176 +10609,178 @@
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="54" t="s">
         <v>153</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="77" t="s">
+      <c r="E54" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G54" s="74" t="str">
+      <c r="G54" s="51" t="str">
         <f>+AUTOMATION_TESTING!C24</f>
         <v>Pass</v>
       </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74" t="s">
+      <c r="H54" s="51"/>
+      <c r="I54" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="71"/>
+      <c r="J54" s="63"/>
     </row>
     <row r="55" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="72"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="64"/>
     </row>
     <row r="56" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="72"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="64"/>
     </row>
     <row r="57" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="72"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="64"/>
     </row>
     <row r="58" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="72"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="64"/>
     </row>
     <row r="59" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="72"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="64"/>
     </row>
     <row r="60" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="72"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="64"/>
     </row>
     <row r="61" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="72"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="64"/>
     </row>
     <row r="62" spans="1:10" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="79"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="73"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="C54:C62"/>
-    <mergeCell ref="E54:E62"/>
-    <mergeCell ref="F54:F62"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="G54:G62"/>
-    <mergeCell ref="H54:H62"/>
-    <mergeCell ref="I54:I62"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="H15:H21"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="H24:H32"/>
+    <mergeCell ref="I24:I32"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -11884,36 +10791,34 @@
     <mergeCell ref="I38:I39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="H24:H32"/>
-    <mergeCell ref="I24:I32"/>
-    <mergeCell ref="J24:J32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="F24:F32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E32"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="H15:H21"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="H54:H62"/>
+    <mergeCell ref="I54:I62"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="E54:E62"/>
+    <mergeCell ref="F54:F62"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11924,31 +10829,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01994122-B194-4DDD-A938-558586709713}">
   <dimension ref="A3:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="25" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" style="25" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="25" width="8.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="25" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="25" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="25" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" style="25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="25" collapsed="1"/>
+    <col min="8" max="8" width="8.140625" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" style="25" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" style="25" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="25" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>280</v>
+      <c r="B3" s="82" t="s">
+        <v>279</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>32</v>
@@ -11956,7 +10861,7 @@
       <c r="D3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="83" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -11978,21 +10883,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>279</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -12223,11 +11116,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="38.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.7109375" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -12251,13 +11144,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="80" t="s">
@@ -12269,9 +11162,9 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="62"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="81"/>
       <c r="E4" s="2" t="s">
         <v>47</v>
@@ -12279,13 +11172,13 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="54" t="s">
         <v>243</v>
       </c>
       <c r="D5" s="80" t="s">
@@ -12297,9 +11190,9 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="81"/>
-      <c r="C6" s="62"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="81"/>
       <c r="E6" s="2" t="s">
         <v>56</v>
@@ -12307,16 +11200,16 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
+      <c r="A7" s="52">
         <v>3</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -12325,137 +11218,137 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="29" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="75"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="75"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="60" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="5" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="60" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="74" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="73"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12471,10 +11364,10 @@
       <c r="D22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
@@ -12483,8 +11376,8 @@
         <v>240</v>
       </c>
       <c r="D23" s="46"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="73"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
@@ -12589,16 +11482,16 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75">
+      <c r="A32" s="52">
         <v>6</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="52" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -12607,60 +11500,60 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="75"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="75"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="29" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="75"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="29" t="s">
         <v>116</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="75"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="75"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="76"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="2" t="s">
         <v>222</v>
       </c>
@@ -12668,6 +11561,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B7:B21"/>
+    <mergeCell ref="D7:D21"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
@@ -12681,22 +11590,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B7:B21"/>
-    <mergeCell ref="D7:D21"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="D32:D38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12707,15 +11600,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189257EA-A5DB-4120-9744-FE078036FFA0}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="12" width="42.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
